--- a/PG_藤代光將_ポートフォリオ.xlsx
+++ b/PG_藤代光將_ポートフォリオ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gameprogram\Desktop\PG_藤代光將\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gameprogram\Desktop\MistGunner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C7950-075A-4455-8B68-2A9480352066}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B695D2-7286-4905-82D0-8B833A95F652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MistGunner" sheetId="5" r:id="rId1"/>
@@ -1247,7 +1247,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">エネミーマネージャーはアタッカーを管理するスクリプトです。
-サーチャーからの呼び出しやスポーン、デスポーンの処理、スポーンしたアタッカーにどのルートを徘徊させるかなど指示を出しています。
+サーチャーからの呼び出しやスポーンが可能かの確認・デスポーンの処理、スポーンしたアタッカーにどのルートを徘徊させるかなど指示を出しています。
 「Attackers」という名前のオブジェクトを参照し、その子供にあるアタッカーをすべて配列に収める事で管理しています。
 　　　　　　　　　　　　　　　↓起動前　　　　　　　　　　　　　　　　　　　　　　　　　　↓起動後
 </t>
@@ -1294,31 +1294,40 @@
     <rPh sb="594" eb="596">
       <t>カンリ</t>
     </rPh>
-    <rPh sb="660" eb="662">
+    <rPh sb="625" eb="627">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="629" eb="631">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="638" eb="640">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="667" eb="669">
       <t>シジ</t>
     </rPh>
-    <rPh sb="663" eb="664">
+    <rPh sb="670" eb="671">
       <t>ダ</t>
     </rPh>
-    <rPh sb="685" eb="687">
+    <rPh sb="692" eb="694">
       <t>ナマエ</t>
     </rPh>
-    <rPh sb="695" eb="697">
+    <rPh sb="702" eb="704">
       <t>サンショウ</t>
     </rPh>
-    <rPh sb="701" eb="703">
+    <rPh sb="708" eb="710">
       <t>コドモ</t>
     </rPh>
-    <rPh sb="715" eb="717">
+    <rPh sb="722" eb="724">
       <t>ハイレツ</t>
     </rPh>
-    <rPh sb="718" eb="719">
+    <rPh sb="725" eb="726">
       <t>オサ</t>
     </rPh>
-    <rPh sb="721" eb="722">
+    <rPh sb="728" eb="729">
       <t>コト</t>
     </rPh>
-    <rPh sb="723" eb="725">
+    <rPh sb="730" eb="732">
       <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1701,6 +1710,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1824,6 +1836,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1832,36 +1871,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2663,7 +2672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0F4127-9FF9-41BA-BA98-946985061D73}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -2675,137 +2684,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="6.75" customHeight="1"/>
     <row r="3" spans="1:8" ht="26.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="5.25" customHeight="1"/>
     <row r="5" spans="1:8" ht="26.4" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" ht="3.6" hidden="1" customHeight="1"/>
     <row r="7" spans="1:8" ht="25.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" ht="25.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="25.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:8" ht="25.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="25.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="34.200000000000003" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
@@ -2813,36 +2822,36 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="9.6" customHeight="1">
       <c r="A18" s="5"/>
@@ -2860,36 +2869,36 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" spans="1:8" ht="10.199999999999999" customHeight="1">
       <c r="A23" s="5"/>
@@ -2914,269 +2923,269 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" ht="8.4" customHeight="1"/>
     <row r="51" spans="1:8" ht="25.05" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="19"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="52" spans="1:8" ht="13.2" customHeight="1"/>
   </sheetData>
@@ -3209,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AB3485-99E5-4A2B-A9C6-FFD5C3D7D634}">
   <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54:N55"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
@@ -3221,137 +3230,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="6.75" customHeight="1"/>
     <row r="3" spans="1:8" ht="26.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="5.25" customHeight="1"/>
     <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" ht="7.5" customHeight="1"/>
     <row r="7" spans="1:8" ht="25.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" ht="19.8" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="37.200000000000003" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:8" ht="25.05" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="25.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="25.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="14" spans="1:8" ht="16.2" customHeight="1">
       <c r="A14" s="4" t="s">
@@ -3359,166 +3368,166 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="32" spans="1:8" ht="16.2" customHeight="1">
       <c r="A32" s="4" t="s">
@@ -3526,721 +3535,721 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="53"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
     </row>
     <row r="34" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="56"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="54"/>
     </row>
     <row r="35" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="56"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="54"/>
     </row>
     <row r="36" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A36" s="54"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="56"/>
-      <c r="N36" s="60" t="s">
+      <c r="A36" s="52"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="54"/>
+      <c r="N36" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="54"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="56"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="54"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="54"/>
     </row>
     <row r="39" spans="1:14" ht="6.75" customHeight="1">
-      <c r="A39" s="54"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="56"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="54"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="54"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="56"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="54"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="56"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="54"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="54"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="56"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="54"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="54"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="56"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="54"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="54"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="56"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="54"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="54"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="56"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="54"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="54"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="56"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="54"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="54"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="56"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="54"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="54"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="56"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="54"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="54"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="56"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="54"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="56"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="54"/>
     </row>
     <row r="51" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A51" s="57"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="59"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="57"/>
     </row>
     <row r="53" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="53"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="51"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="54"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="56"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="54"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="54"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="56"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="54"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="54"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="56"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="54"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="54"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="56"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="54"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="54"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="56"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="54"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="54"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="56"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="54"/>
     </row>
     <row r="60" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A60" s="54"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="56"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="54"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="54"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="56"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="54"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="54"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="56"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="54"/>
     </row>
     <row r="63" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A63" s="54"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="56"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="54"/>
     </row>
     <row r="64" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A64" s="54"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="56"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="54"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="54"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="56"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="54"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="54"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="56"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="54"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="54"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="56"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="54"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="54"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="56"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="54"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="54"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="56"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="54"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="54"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="56"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="54"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="54"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="56"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="54"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="54"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="56"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="54"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="54"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="56"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="54"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="54"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="56"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="54"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="54"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="56"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="54"/>
     </row>
     <row r="76" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A76" s="54"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="56"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="54"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="54"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="56"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="54"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="54"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="56"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="54"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="54"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="56"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="54"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="54"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="56"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="54"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="54"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="56"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="54"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="54"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="56"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="54"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="54"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="56"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="54"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="54"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="56"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="54"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="54"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="56"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="54"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="54"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="56"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="54"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="54"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="56"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="54"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="54"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="56"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="54"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="54"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="56"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="54"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="54"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="56"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="54"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="54"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="56"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="54"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="54"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="56"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="54"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="54"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="56"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="54"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="54"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="56"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="54"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="54"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="55"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="56"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="54"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="54"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="56"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="54"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="54"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="55"/>
-      <c r="H97" s="56"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="54"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="54"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
+      <c r="A98" s="52"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="53"/>
+      <c r="H98" s="54"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="54"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="56"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="54"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="54"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="54"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="54"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="56"/>
+      <c r="A101" s="52"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="54"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="54"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="54"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="54"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="55"/>
-      <c r="D103" s="55"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="55"/>
-      <c r="H103" s="56"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="54"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="57"/>
-      <c r="B104" s="58"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="58"/>
-      <c r="H104" s="59"/>
+      <c r="A104" s="55"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="56"/>
+      <c r="H104" s="57"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="6"/>
@@ -4256,13 +4265,13 @@
       <c r="A106" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B106" s="17"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="19"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="20"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="6"/>

--- a/PG_藤代光將_ポートフォリオ.xlsx
+++ b/PG_藤代光將_ポートフォリオ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gameprogram\Desktop\MistGunner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gameprogram\Desktop\PG_藤代光將\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B695D2-7286-4905-82D0-8B833A95F652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28562B7-1B4D-48BA-B33E-1310FA074538}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MistGunner" sheetId="5" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">EnemyAI!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">MistGunner!$A$1:$H$51</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentManualCount="2"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>ポートフォリオシート</t>
     <phoneticPr fontId="2"/>
@@ -1332,12 +1332,16 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>https://github.com/Kousuke1121/Fujishiro-Kousuke</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1518,6 +1522,32 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1680,11 +1710,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1743,15 +1776,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1872,8 +1896,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{8E228562-F2DF-49A3-A0B4-1769C9B9E823}"/>
   </cellStyles>
@@ -2672,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0F4127-9FF9-41BA-BA98-946985061D73}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
@@ -2684,137 +2718,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="6.75" customHeight="1"/>
     <row r="3" spans="1:8" ht="26.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="5.25" customHeight="1"/>
     <row r="5" spans="1:8" ht="26.4" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="3.6" hidden="1" customHeight="1"/>
     <row r="7" spans="1:8" ht="25.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" ht="25.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" ht="25.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" ht="25.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="25.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="34.200000000000003" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
@@ -2869,36 +2903,36 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" ht="10.199999999999999" customHeight="1">
       <c r="A23" s="5"/>
@@ -3179,13 +3213,15 @@
       <c r="A51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="20"/>
+      <c r="B51" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="60"/>
     </row>
     <row r="52" spans="1:8" ht="13.2" customHeight="1"/>
   </sheetData>
@@ -3208,9 +3244,12 @@
     <mergeCell ref="A20:H22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B51" r:id="rId1" xr:uid="{F900229F-4FAC-4DB3-9DEA-C6E3EA84FF71}"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3218,8 +3257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AB3485-99E5-4A2B-A9C6-FFD5C3D7D634}">
   <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:H104"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
@@ -3230,137 +3269,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="6.75" customHeight="1"/>
     <row r="3" spans="1:8" ht="26.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="5.25" customHeight="1"/>
     <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="27" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="7.5" customHeight="1"/>
     <row r="7" spans="1:8" ht="25.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" ht="19.8" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" ht="37.200000000000003" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" ht="25.05" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="25.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="25.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="16.2" customHeight="1">
       <c r="A14" s="4" t="s">
@@ -3368,7 +3407,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="55" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="10"/>
@@ -3535,721 +3574,721 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="51"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
     </row>
     <row r="34" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="54"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="51"/>
     </row>
     <row r="35" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="54"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
     </row>
     <row r="36" spans="1:14" ht="13.2" customHeight="1">
-      <c r="A36" s="52"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="54"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="51"/>
       <c r="N36" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="52"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="54"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="51"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="52"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="54"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="51"/>
     </row>
     <row r="39" spans="1:14" ht="6.75" customHeight="1">
-      <c r="A39" s="52"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="54"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="51"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="54"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="52"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="54"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="54"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="52"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="51"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="52"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="54"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="51"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="52"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="54"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="51"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="52"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="54"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="51"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="52"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="54"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="51"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="52"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="54"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="51"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="52"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="54"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="51"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="52"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="54"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="51"/>
     </row>
     <row r="51" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A51" s="55"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="57"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="54"/>
     </row>
     <row r="53" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="51"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="48"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="52"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="54"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="51"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="52"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="54"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="51"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="52"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="54"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="51"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="52"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="54"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="51"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="52"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="54"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="51"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="52"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="54"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="51"/>
     </row>
     <row r="60" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A60" s="52"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="54"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="51"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="52"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="54"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="51"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="52"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="54"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="51"/>
     </row>
     <row r="63" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A63" s="52"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="54"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="51"/>
     </row>
     <row r="64" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A64" s="52"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="54"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="51"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="52"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="54"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="51"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="52"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="54"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="51"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="52"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="54"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="52"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="54"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="52"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="54"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="52"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="54"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="52"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="54"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="52"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="54"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="52"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="54"/>
+      <c r="A73" s="49"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="52"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="54"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="52"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="54"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="13.2" customHeight="1">
-      <c r="A76" s="52"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="54"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="52"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="54"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="52"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="54"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="52"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="54"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="52"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="54"/>
+      <c r="A80" s="49"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="52"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="54"/>
+      <c r="A81" s="49"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="52"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="54"/>
+      <c r="A82" s="49"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="52"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="54"/>
+      <c r="A83" s="49"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="52"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="54"/>
+      <c r="A84" s="49"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="52"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="54"/>
+      <c r="A85" s="49"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="52"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="54"/>
+      <c r="A86" s="49"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="51"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="52"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="54"/>
+      <c r="A87" s="49"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="51"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="52"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="54"/>
+      <c r="A88" s="49"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="51"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="52"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="54"/>
+      <c r="A89" s="49"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="51"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="52"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="54"/>
+      <c r="A90" s="49"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="51"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="52"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="54"/>
+      <c r="A91" s="49"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="51"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="52"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="54"/>
+      <c r="A92" s="49"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="51"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="52"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="54"/>
+      <c r="A93" s="49"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="51"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="52"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="54"/>
+      <c r="A94" s="49"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="51"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="52"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="54"/>
+      <c r="A95" s="49"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="51"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="52"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="54"/>
+      <c r="A96" s="49"/>
+      <c r="B96" s="50"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="51"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="52"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="54"/>
+      <c r="A97" s="49"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="50"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="51"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="52"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="53"/>
-      <c r="H98" s="54"/>
+      <c r="A98" s="49"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="51"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="52"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="54"/>
+      <c r="A99" s="49"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="51"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="52"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="54"/>
+      <c r="A100" s="49"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="51"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="52"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="54"/>
+      <c r="A101" s="49"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="50"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="51"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="52"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="53"/>
-      <c r="H102" s="54"/>
+      <c r="A102" s="49"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="51"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="52"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
-      <c r="H103" s="54"/>
+      <c r="A103" s="49"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="50"/>
+      <c r="H103" s="51"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="55"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="56"/>
-      <c r="H104" s="57"/>
+      <c r="A104" s="52"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="54"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="6"/>
@@ -4265,13 +4304,15 @@
       <c r="A106" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="20"/>
+      <c r="B106" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" s="59"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="6"/>
@@ -4663,8 +4704,11 @@
     <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B106" r:id="rId1" xr:uid="{376FE874-076D-4FF1-AB21-B3218522ED21}"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>